--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B7B81-9844-4BFC-B48B-DAEF81162305}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C2FA14-8728-4E06-9D5B-509935501173}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -113,7 +113,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +130,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDFF7FD"/>
         <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFFAFD"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -160,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,12 +180,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,6 +934,18 @@
         <v>700</v>
       </c>
     </row>
+    <row r="38" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C2FA14-8728-4E06-9D5B-509935501173}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1B2172-F310-4C64-B711-956B33E89FD3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -79,9 +79,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -107,10 +106,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -166,27 +166,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +511,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,16 +522,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -542,21 +539,21 @@
       <c r="A2" s="1">
         <v>42887</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
         <v>10000</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>10000</v>
       </c>
     </row>
@@ -564,21 +561,21 @@
       <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
         <v>50</v>
       </c>
     </row>
@@ -586,21 +583,21 @@
       <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>150</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
         <v>150</v>
       </c>
     </row>
@@ -608,21 +605,21 @@
       <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
         <v>200</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
         <v>200</v>
       </c>
     </row>
@@ -630,21 +627,21 @@
       <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>250</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
         <v>250</v>
       </c>
     </row>
@@ -652,21 +649,21 @@
       <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>150</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
         <v>150</v>
       </c>
     </row>
@@ -674,21 +671,21 @@
       <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>450</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
         <v>450</v>
       </c>
     </row>
@@ -696,21 +693,21 @@
       <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>40</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
         <v>40</v>
       </c>
     </row>
@@ -718,21 +715,21 @@
       <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>600</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6">
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
         <v>600</v>
       </c>
     </row>
@@ -740,21 +737,21 @@
       <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
         <v>500</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
         <v>500</v>
       </c>
     </row>
@@ -762,21 +759,21 @@
       <c r="A22" s="1">
         <v>42903</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>30</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
         <v>30</v>
       </c>
     </row>
@@ -784,21 +781,21 @@
       <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
         <v>250</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5">
         <v>250</v>
       </c>
     </row>
@@ -806,21 +803,21 @@
       <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>40</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6">
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5">
         <v>40</v>
       </c>
     </row>
@@ -828,21 +825,21 @@
       <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>750</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5">
         <v>750</v>
       </c>
     </row>
@@ -850,21 +847,21 @@
       <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>175</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6">
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5">
         <v>175</v>
       </c>
     </row>
@@ -872,21 +869,21 @@
       <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>600</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6">
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5">
         <v>600</v>
       </c>
     </row>
@@ -894,21 +891,21 @@
       <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>1600</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6">
+      <c r="C35" s="4"/>
+      <c r="D35" s="5">
         <v>1600</v>
       </c>
     </row>
@@ -916,35 +913,35 @@
       <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>700</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6">
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1B2172-F310-4C64-B711-956B33E89FD3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7D2898-8CC1-4B3E-9CF9-C958C1A00773}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -166,15 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -183,6 +180,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,16 +525,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -539,21 +542,21 @@
       <c r="A2" s="1">
         <v>42887</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
         <v>10000</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -561,21 +564,21 @@
       <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>50</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
         <v>50</v>
       </c>
     </row>
@@ -583,21 +586,21 @@
       <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>150</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4">
         <v>150</v>
       </c>
     </row>
@@ -605,21 +608,21 @@
       <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <v>200</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4">
         <v>200</v>
       </c>
     </row>
@@ -627,21 +630,21 @@
       <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>250</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
         <v>250</v>
       </c>
     </row>
@@ -649,21 +652,21 @@
       <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>150</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4">
         <v>150</v>
       </c>
     </row>
@@ -671,21 +674,21 @@
       <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>450</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4">
         <v>450</v>
       </c>
     </row>
@@ -693,21 +696,21 @@
       <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>40</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4">
         <v>40</v>
       </c>
     </row>
@@ -715,21 +718,21 @@
       <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>600</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5">
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4">
         <v>600</v>
       </c>
     </row>
@@ -737,21 +740,21 @@
       <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
         <v>500</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4">
         <v>500</v>
       </c>
     </row>
@@ -759,21 +762,21 @@
       <c r="A22" s="1">
         <v>42903</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>30</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5">
+      <c r="C23" s="3"/>
+      <c r="D23" s="4">
         <v>30</v>
       </c>
     </row>
@@ -781,21 +784,21 @@
       <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
         <v>250</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5">
+      <c r="C25" s="3"/>
+      <c r="D25" s="4">
         <v>250</v>
       </c>
     </row>
@@ -803,21 +806,21 @@
       <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>40</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5">
+      <c r="B27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4">
         <v>40</v>
       </c>
     </row>
@@ -825,21 +828,21 @@
       <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>750</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5">
+      <c r="C29" s="3"/>
+      <c r="D29" s="4">
         <v>750</v>
       </c>
     </row>
@@ -847,21 +850,21 @@
       <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>175</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5">
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4">
         <v>175</v>
       </c>
     </row>
@@ -869,21 +872,21 @@
       <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>600</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5">
+      <c r="B33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4">
         <v>600</v>
       </c>
     </row>
@@ -891,21 +894,21 @@
       <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>1600</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5">
+      <c r="C35" s="3"/>
+      <c r="D35" s="4">
         <v>1600</v>
       </c>
     </row>
@@ -913,21 +916,21 @@
       <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>700</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5">
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4">
         <v>700</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7D2898-8CC1-4B3E-9CF9-C958C1A00773}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10873BAE-156F-4498-AB07-5E4FD6087B0E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -172,12 +172,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -186,6 +180,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,16 +525,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -542,21 +542,21 @@
       <c r="A2" s="1">
         <v>42887</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
         <v>10000</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
         <v>10000</v>
       </c>
     </row>
@@ -564,21 +564,21 @@
       <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>50</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7">
         <v>50</v>
       </c>
     </row>
@@ -586,21 +586,21 @@
       <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>150</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
         <v>150</v>
       </c>
     </row>
@@ -608,21 +608,21 @@
       <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
         <v>200</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7">
         <v>200</v>
       </c>
     </row>
@@ -630,21 +630,21 @@
       <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>250</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7">
         <v>250</v>
       </c>
     </row>
@@ -652,21 +652,21 @@
       <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>150</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7">
         <v>150</v>
       </c>
     </row>
@@ -674,21 +674,21 @@
       <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>450</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7">
         <v>450</v>
       </c>
     </row>
@@ -696,21 +696,21 @@
       <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7">
         <v>40</v>
       </c>
     </row>
@@ -718,21 +718,21 @@
       <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>600</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4">
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7">
         <v>600</v>
       </c>
     </row>
@@ -740,21 +740,21 @@
       <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6">
         <v>500</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4">
+      <c r="C21" s="6"/>
+      <c r="D21" s="7">
         <v>500</v>
       </c>
     </row>
@@ -762,21 +762,21 @@
       <c r="A22" s="1">
         <v>42903</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>30</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7">
         <v>30</v>
       </c>
     </row>
@@ -784,21 +784,21 @@
       <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6">
         <v>250</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7">
         <v>250</v>
       </c>
     </row>
@@ -806,21 +806,21 @@
       <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>40</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
         <v>40</v>
       </c>
     </row>
@@ -828,21 +828,21 @@
       <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <v>750</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4">
+      <c r="C29" s="6"/>
+      <c r="D29" s="7">
         <v>750</v>
       </c>
     </row>
@@ -850,21 +850,21 @@
       <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="6">
         <v>175</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4">
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7">
         <v>175</v>
       </c>
     </row>
@@ -872,21 +872,21 @@
       <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="6">
         <v>600</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4">
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7">
         <v>600</v>
       </c>
     </row>
@@ -894,21 +894,21 @@
       <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="6">
         <v>1600</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4">
+      <c r="C35" s="6"/>
+      <c r="D35" s="7">
         <v>1600</v>
       </c>
     </row>
@@ -916,21 +916,21 @@
       <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="6">
         <v>700</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4">
+      <c r="B37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7">
         <v>700</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10873BAE-156F-4498-AB07-5E4FD6087B0E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9ABF81-622E-4A95-A158-1AE634C5C6CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -69,10 +69,19 @@
     <t>Cash Dividends</t>
   </si>
   <si>
-    <t>Common Stock</t>
-  </si>
-  <si>
-    <t>Fees Earned</t>
+    <t xml:space="preserve">   Common Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Accounts Payable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Fees Earned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Accounts Receivable</t>
   </si>
 </sst>
 </file>
@@ -98,6 +107,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,9 +115,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,12 +130,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFFAFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDFF7FD"/>
         <bgColor theme="8"/>
       </patternFill>
@@ -136,6 +138,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFFAFD"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFFAFD"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -168,24 +176,24 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,426 +533,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>42887</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>10000</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>42887</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>50</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>42888</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>150</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>42891</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>200</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>42892</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>250</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>42894</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>150</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>42895</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>450</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>42896</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>40</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>42899</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>600</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>42902</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>500</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="7">
         <v>42903</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>30</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>8</v>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>42906</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>250</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>7</v>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>42907</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>40</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>42910</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>750</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>13</v>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>42911</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>175</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>4</v>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>42913</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>600</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>4</v>
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>42915</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>1600</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>13</v>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>42916</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>700</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>4</v>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="7">
+      <c r="D37" s="5">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Answer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9ABF81-622E-4A95-A158-1AE634C5C6CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81E612-2170-4749-A4C4-7B6FB8520E0F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -174,9 +174,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,426 +532,414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>42887</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>10000</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5">
+      <c r="C3" s="5"/>
+      <c r="D3" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>42887</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>42888</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>150</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>42891</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>200</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>42892</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>250</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="4">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>42894</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>150</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>42895</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>450</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>42896</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>40</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5">
+      <c r="C17" s="5"/>
+      <c r="D17" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>42899</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>600</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5">
+      <c r="C19" s="5"/>
+      <c r="D19" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>42902</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>500</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5">
+      <c r="C21" s="5"/>
+      <c r="D21" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>42903</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>30</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5">
+      <c r="C23" s="5"/>
+      <c r="D23" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>42906</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>250</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5">
+      <c r="C25" s="5"/>
+      <c r="D25" s="4">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>42907</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>40</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5">
+      <c r="C27" s="5"/>
+      <c r="D27" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>42910</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>750</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5">
+      <c r="C29" s="5"/>
+      <c r="D29" s="4">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>42911</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>175</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5">
+      <c r="C31" s="5"/>
+      <c r="D31" s="4">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>42913</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>600</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5">
+      <c r="C33" s="5"/>
+      <c r="D33" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>42915</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>1600</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5">
+      <c r="C35" s="5"/>
+      <c r="D35" s="4">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>42916</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>700</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5">
+      <c r="C37" s="5"/>
+      <c r="D37" s="4">
         <v>700</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
